--- a/log/log.xlsx
+++ b/log/log.xlsx
@@ -20,16 +20,16 @@
     <t>Jan 1, 1970 01:00am</t>
   </si>
   <si>
-    <t>Nov 23, 2018 07:18am</t>
+    <t>Nov 24, 2018 12:54am</t>
   </si>
   <si>
-    <t>Nov 23, 2018 05:18am</t>
+    <t>Nov 23, 2018 10:54pm</t>
   </si>
   <si>
-    <t>Nov 23, 2018 06:18am</t>
+    <t>Nov 23, 2018 11:54pm</t>
   </si>
   <si>
-    <t>Nov 23, 2018 04:37am</t>
+    <t>Nov 23, 2018 10:13pm</t>
   </si>
 </sst>
 </file>
